--- a/individual_case_outputs/avey/151.xlsx
+++ b/individual_case_outputs/avey/151.xlsx
@@ -590,27 +590,27 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
+          <t>perioral dermatitis</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>acne vulgaris</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>rosacea</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>acne vulgaris</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>sebaceous hyperplasia</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>rosacea</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>sebaceous hyperplasia</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>acneiform eruptions</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -656,11 +656,7 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>rosacea</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
